--- a/doc/task7/crc-card.xlsx
+++ b/doc/task7/crc-card.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\workspace\ch.bfh.btx8081.w2016.red\doc\task7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\workspace\neon\ch.bfh.btx8081.w2016.red\trunk\doc\task7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Login</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Anzahl Patienten</t>
-  </si>
-  <si>
-    <t>Institutution</t>
   </si>
   <si>
     <t>Statistik</t>
@@ -254,25 +251,13 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,7 +269,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -604,32 +601,32 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,7 +652,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -677,7 +674,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -695,7 +692,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -713,7 +710,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -731,7 +728,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.5">
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
@@ -739,26 +736,26 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="3"/>
@@ -767,16 +764,16 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>23</v>
@@ -787,12 +784,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>24</v>
@@ -801,12 +798,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>25</v>
@@ -815,12 +812,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>26</v>
@@ -829,45 +826,45 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -875,7 +872,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
@@ -883,7 +880,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -891,7 +888,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
@@ -899,7 +896,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -907,7 +904,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
@@ -915,11 +912,11 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="3"/>
@@ -927,7 +924,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -937,23 +934,65 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="L2:O2"/>
@@ -970,64 +1009,22 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
